--- a/InputData/elec/FSCaFoCC/Fuel Shifting Cost as Frac of Const Cost.xlsx
+++ b/InputData/elec/FSCaFoCC/Fuel Shifting Cost as Frac of Const Cost.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code Repositories\eps-us\InputData\elec\FSCaFoCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\FSCaFoCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C72C187-C6CD-43D7-8755-45C25F8C326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25320" windowHeight="9150"/>
+    <workbookView xWindow="29385" yWindow="660" windowWidth="27195" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="3" r:id="rId2"/>
     <sheet name="FSCaFoCC" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>FSCaFoCC Fuel Shifting Cost as Fraction of Construction Cost</t>
   </si>
@@ -105,9 +116,6 @@
     <t>hard coal</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -150,9 +158,6 @@
     <t>municipal solid waste</t>
   </si>
   <si>
-    <t>Fraction of construction cost (dimensionless)</t>
-  </si>
-  <si>
     <t>Based on example plant in Joliet, IL</t>
   </si>
   <si>
@@ -220,14 +225,26 @@
   </si>
   <si>
     <t>See variable CCaMC, year 2019</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless</t>
+  </si>
+  <si>
+    <t>Fraction of construction cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -307,7 +324,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -597,7 +614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -614,15 +631,15 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -632,27 +649,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -662,27 +679,27 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -767,15 +784,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -789,66 +806,66 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>1326</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4">
         <v>205</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>998650</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="6">
         <f>B6*B3/10^6</f>
         <v>1324.2099000000001</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="7">
         <f>B4/B7</f>
@@ -857,16 +874,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
-    <hyperlink ref="D4" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -876,8 +896,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +913,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B3">
         <f>Data!B9</f>
@@ -899,15 +922,16 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <f>Data!B9</f>
+        <v>0.15480929420630368</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -915,7 +939,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -923,7 +947,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -931,7 +955,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -939,7 +963,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -947,7 +971,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -955,7 +979,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -963,7 +987,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -971,7 +995,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -979,7 +1003,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -987,7 +1011,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -995,7 +1019,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1003,13 +1027,22 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/InputData/elec/FSCaFoCC/Fuel Shifting Cost as Frac of Const Cost.xlsx
+++ b/InputData/elec/FSCaFoCC/Fuel Shifting Cost as Frac of Const Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\elec\FSCaFoCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\FSCaFoCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C72C187-C6CD-43D7-8755-45C25F8C326A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F7038D-AFBB-4791-937E-025DE60B81A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29385" yWindow="660" windowWidth="27195" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>FSCaFoCC Fuel Shifting Cost as Fraction of Construction Cost</t>
   </si>
@@ -237,6 +237,24 @@
   </si>
   <si>
     <t>Fraction of construction cost</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -314,11 +332,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -633,7 +649,7 @@
       <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -643,7 +659,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>2016</v>
       </c>
     </row>
@@ -653,7 +669,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -663,7 +679,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -673,7 +689,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>2017</v>
       </c>
     </row>
@@ -683,7 +699,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -698,7 +714,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -799,18 +815,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B3">
@@ -819,12 +835,12 @@
       <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B4">
@@ -833,12 +849,12 @@
       <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B6">
@@ -852,10 +868,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <f>B6*B3/10^6</f>
         <v>1324.2099000000001</v>
       </c>
@@ -864,10 +880,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <f>B4/B7</f>
         <v>0.15480929420630368</v>
       </c>
@@ -886,9 +902,11 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -896,15 +914,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2">
@@ -912,7 +930,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B3">
@@ -921,7 +939,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B4">
@@ -930,7 +948,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B5">
@@ -938,7 +956,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6">
@@ -946,7 +964,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7">
@@ -954,7 +972,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B8">
@@ -962,7 +980,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9">
@@ -970,7 +988,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10">
@@ -978,7 +996,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11">
@@ -986,7 +1004,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B12">
@@ -994,7 +1012,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B13">
@@ -1002,7 +1020,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B14">
@@ -1010,7 +1028,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15">
@@ -1018,7 +1036,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16">
@@ -1026,7 +1044,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17">
@@ -1034,10 +1052,58 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24">
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/FSCaFoCC/Fuel Shifting Cost as Frac of Const Cost.xlsx
+++ b/InputData/elec/FSCaFoCC/Fuel Shifting Cost as Frac of Const Cost.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\FSCaFoCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F7038D-AFBB-4791-937E-025DE60B81A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8344FC6D-7339-4674-B6A2-0DF7E4068F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>FSCaFoCC Fuel Shifting Cost as Fraction of Construction Cost</t>
   </si>
@@ -254,7 +254,10 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -264,7 +267,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +306,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -332,7 +342,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -348,6 +358,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -633,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -902,10 +915,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,10 +1113,18 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25">
         <v>0</v>
       </c>
     </row>
